--- a/Income/BAC_inc.xlsx
+++ b/Income/BAC_inc.xlsx
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.209</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.239</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.209</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.239</v>
